--- a/outputs-HGR-r202/g__CAG-841.xlsx
+++ b/outputs-HGR-r202/g__CAG-841.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,20 +474,20 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19215.fa</t>
+          <t>even_MAG-GUT16720.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9868513377429434</v>
+        <v>0.9870674908760778</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000224465859910531</v>
+        <v>0.0002785814217324924</v>
       </c>
       <c r="D2" t="n">
-        <v>0.012924196397146</v>
+        <v>0.01265392770218963</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9868513377429434</v>
+        <v>0.9870674908760778</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -503,56 +503,85 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41956.fa</t>
+          <t>even_MAG-GUT19215.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0253383977373068</v>
+        <v>0.9868513377429434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07909066628779082</v>
+        <v>0.000224465859910531</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8955709359749024</v>
+        <v>0.012924196397146</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8955709359749024</v>
+        <v>0.9868513377429434</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>s__CAG-841 sp900544285</t>
+          <t>s__CAG-841 sp000437375</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>s__CAG-841 sp900544285</t>
+          <t>s__CAG-841 sp000437375</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT41956.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0253383977373068</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.07909066628779082</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8955709359749024</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8955709359749024</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>s__CAG-841 sp900544285</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>s__CAG-841 sp900544285</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT4760.fa</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>0.9919585160757939</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>0.0004485475300358512</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.007592936394170214</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>0.9919585160757939</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>s__CAG-841 sp000437375</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>s__CAG-841 sp000437375</t>
         </is>
